--- a/002.Desarrollo/data/TestsFallidosGUI.xlsx
+++ b/002.Desarrollo/data/TestsFallidosGUI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Se ingresa admin y password erroneo, 5 veces</t>
+  </si>
+  <si>
+    <t>fd</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +527,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/002.Desarrollo/data/TestsFallidosGUI.xlsx
+++ b/002.Desarrollo/data/TestsFallidosGUI.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="13980" windowHeight="4500" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="13980" windowHeight="4500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ABM ROL" sheetId="1" r:id="rId1"/>
     <sheet name="Login y Seguridad" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="ABM VISIBILIDAD" sheetId="3" r:id="rId3"/>
+    <sheet name="Generar Publicacion" sheetId="5" r:id="rId4"/>
+    <sheet name="Comprar-Ofertar" sheetId="6" r:id="rId5"/>
+    <sheet name="Calificar al Vendedor" sheetId="7" r:id="rId6"/>
+    <sheet name="Historial Cliente" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -67,14 +71,127 @@
     <t>Se ingresa admin y password erroneo, 5 veces</t>
   </si>
   <si>
-    <t>fd</t>
+    <t xml:space="preserve">Alta usuario </t>
+  </si>
+  <si>
+    <t>Se ingresa como admin
+Se ingresa al formulario alta de usuarios</t>
+  </si>
+  <si>
+    <t>No me permite dar de alta al usuario, las LOCALIDADES NO SE CARGAN EN EL COMBO</t>
+  </si>
+  <si>
+    <t>Baja usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se ingresa como admin </t>
+  </si>
+  <si>
+    <t>No existe el formulario de baja logica para usuarios</t>
+  </si>
+  <si>
+    <t>Modificacion Usuario</t>
+  </si>
+  <si>
+    <t>Se modifica el cuit de una empresa</t>
+  </si>
+  <si>
+    <t>Cuadro de dialogo: error de sintaxis en la consulta
+A pesar de que solo cambie un numero en el cuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro cuadro de dialogo: El tipo de datos del parametro de sustitucion 1 no coincide con
+el tipo esperado de la especificacion de formato.
+En el formulario aparcen decimales para los numeros de dni
+</t>
+  </si>
+  <si>
+    <t>Se modifica el nro dni de un cliente por otro existente</t>
+  </si>
+  <si>
+    <t>Modificacion Visbilidad</t>
+  </si>
+  <si>
+    <t>No carga las visibilidades existentes en el formulario de modificacion</t>
+  </si>
+  <si>
+    <t>Se ingresa al formulario de modificaciones</t>
+  </si>
+  <si>
+    <t>Consultar visibilidad</t>
+  </si>
+  <si>
+    <t>Se ingresa al formulario de consultar visibilidades</t>
+  </si>
+  <si>
+    <t>No se cargan las visibilidades</t>
+  </si>
+  <si>
+    <t>Se ingresa al formulario de alta de publicacion</t>
+  </si>
+  <si>
+    <t>Comprar una publicacion tipo  compra inmediata</t>
+  </si>
+  <si>
+    <t>Se ingresa al formulario de compra y se selecciona una publicacion 
+En el siguiente formulario se hace click en comprar</t>
+  </si>
+  <si>
+    <t>Error cuadro de  dialogo: no se en cuentra la funcion
+ "TPGDD.getStockComprasInmediatas"</t>
+  </si>
+  <si>
+    <t>Probar la carga de funcionalidades 
+al ingresar con rol administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se ingresa como admin  </t>
+  </si>
+  <si>
+    <t>Se cargan funcionalidades que no corresponden, como por ejemplo:
+Publicaciones
+Compra y oferta</t>
+  </si>
+  <si>
+    <t>Generar publicacion compra inmediata borrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se genera como pausada </t>
+  </si>
+  <si>
+    <t>Generar publicacion compra inmediata activa</t>
+  </si>
+  <si>
+    <t>Generar pubilcacion subasta</t>
+  </si>
+  <si>
+    <t>Ofertar una subasta</t>
+  </si>
+  <si>
+    <t>Se ingresa al formulario de compra y se selecciona una publicacion 
+En el siguiente formulario se hace click en ofertar</t>
+  </si>
+  <si>
+    <t>Error cuadro de  dialogo: La cantidad solicitada supera la cantidad disponible del producto, ingrese una cantidad menor</t>
+  </si>
+  <si>
+    <t>Ver historial de un cliente</t>
+  </si>
+  <si>
+    <t>Se ingresa como administrador 
+Se ingresa al formulario de historial de clientes
+Se elige como fecha aprox. 15 ene 2015
+Se hace click en buscar</t>
+  </si>
+  <si>
+    <t>No se muestra ningún registro, a pesar que hay compras realizadas para la fecha ingresada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +202,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -124,6 +249,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -427,17 +556,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.28515625" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -474,7 +603,52 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -483,13 +657,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="65.5703125" customWidth="1"/>
   </cols>
@@ -527,9 +701,72 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>15</v>
+      <c r="B6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -537,14 +774,192 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>